--- a/BMSHPMS/wwwroot/ExcelTemplate/Longevity_small5cell_210x130mm_redpaper.xlsx
+++ b/BMSHPMS/wwwroot/ExcelTemplate/Longevity_small5cell_210x130mm_redpaper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\WWW\bmshpms\wwwroot\ExcelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fei\Desktop\表格樣本\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FC8CD8-FE02-4745-B04B-1F92E34A578B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A0523FA-EB38-4BB7-82FC-AA8CFE52E322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20355" yWindow="3090" windowWidth="16560" windowHeight="13410"/>
   </bookViews>
   <sheets>
     <sheet name="範本" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="\P000000"/>
   </numFmts>
@@ -478,16 +478,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N8" sqref="N8:O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="0.375" customWidth="1"/>
+    <col min="1" max="1" width="1.5" customWidth="1"/>
     <col min="2" max="3" width="6" customWidth="1"/>
     <col min="4" max="4" width="7.625" customWidth="1"/>
     <col min="5" max="6" width="6" customWidth="1"/>
@@ -643,19 +643,19 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H2:I6"/>
+    <mergeCell ref="K2:L6"/>
+    <mergeCell ref="B2:C6"/>
+    <mergeCell ref="E2:F6"/>
+    <mergeCell ref="N2:O6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="H2:I6"/>
-    <mergeCell ref="K2:L6"/>
-    <mergeCell ref="B2:C6"/>
-    <mergeCell ref="E2:F6"/>
-    <mergeCell ref="N2:O6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="1.40625" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="155" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="238" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BMSHPMS/wwwroot/ExcelTemplate/Longevity_small5cell_210x130mm_redpaper.xlsx
+++ b/BMSHPMS/wwwroot/ExcelTemplate/Longevity_small5cell_210x130mm_redpaper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fei\Desktop\表格樣本\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fei\Desktop\表格樣本\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A0523FA-EB38-4BB7-82FC-AA8CFE52E322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE687C1-281E-4D8D-9403-A4DCFC52FD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20355" yWindow="3090" windowWidth="16560" windowHeight="13410"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="範本" sheetId="1" r:id="rId1"/>
@@ -76,11 +76,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="\P000000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -478,16 +478,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8:O8"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.5" customWidth="1"/>
+    <col min="1" max="1" width="0.25" customWidth="1"/>
     <col min="2" max="3" width="6" customWidth="1"/>
     <col min="4" max="4" width="7.625" customWidth="1"/>
     <col min="5" max="6" width="6" customWidth="1"/>
@@ -499,7 +499,7 @@
     <col min="14" max="15" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="6" customHeight="1">
+    <row r="1" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -516,7 +516,7 @@
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
     </row>
-    <row r="2" spans="1:15" ht="29.85" customHeight="1">
+    <row r="2" spans="1:15" ht="29.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="10" t="s">
         <v>0</v>
@@ -543,7 +543,7 @@
       </c>
       <c r="O2" s="10"/>
     </row>
-    <row r="3" spans="1:15" ht="29.85" customHeight="1">
+    <row r="3" spans="1:15" ht="29.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -560,7 +560,7 @@
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
     </row>
-    <row r="4" spans="1:15" ht="29.85" customHeight="1">
+    <row r="4" spans="1:15" ht="29.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -577,7 +577,7 @@
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
     </row>
-    <row r="5" spans="1:15" ht="29.85" customHeight="1">
+    <row r="5" spans="1:15" ht="29.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -594,7 +594,7 @@
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
     </row>
-    <row r="6" spans="1:15" ht="49.5" customHeight="1">
+    <row r="6" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -611,10 +611,10 @@
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
     </row>
-    <row r="7" spans="1:15" ht="72.75" customHeight="1">
+    <row r="7" spans="1:15" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="11" t="s">
         <v>5</v>
@@ -643,19 +643,19 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:O8"/>
     <mergeCell ref="H2:I6"/>
     <mergeCell ref="K2:L6"/>
     <mergeCell ref="B2:C6"/>
     <mergeCell ref="E2:F6"/>
     <mergeCell ref="N2:O6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:O8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="1.40625" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="238" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="237" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>